--- a/fsh/ig-data/input/images/EOBProfileComparison20201006.xlsx
+++ b/fsh/ig-data/input/images/EOBProfileComparison20201006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/carin-bb/fsh/ig-data/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2078724-B4E0-C249-AAF8-8FF9B3A07777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DFCFB-7B59-174D-A090-13F9EADD091F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="860" windowWidth="38720" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="520" windowWidth="38720" windowHeight="24740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOBProfileComparison" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">EOBProfileComparison!$A$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Table3[#All]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="152">
   <si>
     <t>Pharmacy</t>
   </si>
@@ -437,22 +446,10 @@
     <t>class[plan]1..1</t>
   </si>
   <si>
-    <t>urn:oid:2.16.840.1.113883.4.4</t>
-  </si>
-  <si>
     <t>identifier[naiccode]</t>
   </si>
   <si>
-    <t>urn:oid:2.16.840.1.113883.6.300</t>
-  </si>
-  <si>
     <t>Practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier 1..1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifer[NPI] 1..1 </t>
   </si>
   <si>
     <t>Invariant</t>
@@ -484,6 +481,24 @@
   </si>
   <si>
     <t>C4BBClaimIdentifierType (extensible)</t>
+  </si>
+  <si>
+    <t>identifer[tax] 0..1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifer[npi] 1..1 </t>
+  </si>
+  <si>
+    <t>system = urn:oid:2.16.840.1.113883.4.4</t>
+  </si>
+  <si>
+    <t>system = urn:oid:2.16.840.1.113883.6.300</t>
+  </si>
+  <si>
+    <t>system =  http://hl7.org/fhir/sid/us-npi</t>
+  </si>
+  <si>
+    <t>system = http://hl7.org/fhir/sid/us-npi (from USCore) </t>
   </si>
 </sst>
 </file>
@@ -649,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -937,6 +952,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -969,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1223,16 +1249,16 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1283,12 +1309,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="9" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,7 +1706,7 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
@@ -1725,7 +1752,7 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="122" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2" s="103" t="s">
         <v>6</v>
@@ -1734,7 +1761,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="121" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -2021,13 +2048,13 @@
         <v>60</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C19" s="114" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -2170,11 +2197,11 @@
         <v>68</v>
       </c>
       <c r="C27" s="111" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="57"/>
@@ -2362,7 +2389,7 @@
     </row>
     <row r="39" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="81" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="73" t="s">
         <v>128</v>
@@ -2487,7 +2514,7 @@
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
       <c r="H45" s="58" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2619,10 +2646,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2637,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -2649,7 +2676,7 @@
         <v>49</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2749,7 +2776,9 @@
         <v>50</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2759,7 +2788,7 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -2775,11 +2804,11 @@
     <row r="14" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -2830,7 +2859,7 @@
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2840,19 +2869,23 @@
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="10" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="10" t="s">
-        <v>139</v>
+      <c r="B22" t="s">
+        <v>146</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2874,6 +2907,9 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fsh/ig-data/input/images/EOBProfileComparison20201006.xlsx
+++ b/fsh/ig-data/input/images/EOBProfileComparison20201006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/carin-bb/fsh/ig-data/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DFCFB-7B59-174D-A090-13F9EADD091F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27515B51-7A67-2742-B751-B5B4A9B3A2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="520" windowWidth="38720" windowHeight="24740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="520" windowWidth="38720" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOBProfileComparison" sheetId="1" r:id="rId1"/>
@@ -1706,7 +1706,7 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
@@ -2648,8 +2648,8 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/fsh/ig-data/input/images/EOBProfileComparison20201006.xlsx
+++ b/fsh/ig-data/input/images/EOBProfileComparison20201006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/carin-bb/fsh/ig-data/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DFCFB-7B59-174D-A090-13F9EADD091F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309112E4-5948-F442-AE61-038FC6AC8F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="520" windowWidth="38720" windowHeight="24740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="520" windowWidth="38720" windowHeight="24740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOBProfileComparison" sheetId="1" r:id="rId1"/>
@@ -1706,7 +1706,7 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
@@ -2648,8 +2648,8 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
